--- a/outputs/reconciled_data_PerfectCompanion.xlsx
+++ b/outputs/reconciled_data_PerfectCompanion.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:AA84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,6 +545,31 @@
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
+          <t>INV.no Check</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Inv. Date Check</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ExcludeVAT_diff</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>VAT_diff</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>IncludeVAT_diff</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
           <t>null_report</t>
         </is>
       </c>
@@ -637,7 +662,22 @@
       <c r="U2" t="n">
         <v>2459.8</v>
       </c>
-      <c r="V2" t="inlineStr"/>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -691,7 +731,16 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
         <is>
           <t>CPFM_Null</t>
         </is>
@@ -785,7 +834,22 @@
       <c r="U4" t="n">
         <v>2875.69</v>
       </c>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -871,7 +935,22 @@
       <c r="U5" t="n">
         <v>2664.26</v>
       </c>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -961,7 +1040,22 @@
       <c r="U6" t="n">
         <v>2474.4</v>
       </c>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1051,7 +1145,22 @@
       <c r="U7" t="n">
         <v>2226.41</v>
       </c>
-      <c r="V7" t="inlineStr"/>
+      <c r="V7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1141,7 +1250,22 @@
       <c r="U8" t="n">
         <v>3109.46</v>
       </c>
-      <c r="V8" t="inlineStr"/>
+      <c r="V8" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" t="b">
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1231,7 +1355,22 @@
       <c r="U9" t="n">
         <v>9839.809999999999</v>
       </c>
-      <c r="V9" t="inlineStr"/>
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1321,7 +1460,22 @@
       <c r="U10" t="n">
         <v>1459.48</v>
       </c>
-      <c r="V10" t="inlineStr"/>
+      <c r="V10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1411,7 +1565,22 @@
       <c r="U11" t="n">
         <v>1167.58</v>
       </c>
-      <c r="V11" t="inlineStr"/>
+      <c r="V11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -1497,7 +1666,22 @@
       <c r="U12" t="n">
         <v>1459.48</v>
       </c>
-      <c r="V12" t="inlineStr"/>
+      <c r="V12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" t="b">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1587,7 +1771,22 @@
       <c r="U13" t="n">
         <v>1912.69</v>
       </c>
-      <c r="V13" t="inlineStr"/>
+      <c r="V13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1677,7 +1876,22 @@
       <c r="U14" t="n">
         <v>2518.05</v>
       </c>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W14" t="b">
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1767,7 +1981,22 @@
       <c r="U15" t="n">
         <v>3386.51</v>
       </c>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="b">
+        <v>1</v>
+      </c>
+      <c r="W15" t="b">
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1857,7 +2086,22 @@
       <c r="U16" t="n">
         <v>1350.47</v>
       </c>
-      <c r="V16" t="inlineStr"/>
+      <c r="V16" t="b">
+        <v>1</v>
+      </c>
+      <c r="W16" t="b">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -1943,7 +2187,22 @@
       <c r="U17" t="n">
         <v>583.92</v>
       </c>
-      <c r="V17" t="inlineStr"/>
+      <c r="V17" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" t="b">
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2033,7 +2292,22 @@
       <c r="U18" t="n">
         <v>2117.27</v>
       </c>
-      <c r="V18" t="inlineStr"/>
+      <c r="V18" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" t="b">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2123,7 +2397,22 @@
       <c r="U19" t="n">
         <v>1109.33</v>
       </c>
-      <c r="V19" t="inlineStr"/>
+      <c r="V19" t="b">
+        <v>1</v>
+      </c>
+      <c r="W19" t="b">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2213,7 +2502,22 @@
       <c r="U20" t="n">
         <v>3219.12</v>
       </c>
-      <c r="V20" t="inlineStr"/>
+      <c r="V20" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" t="b">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2303,7 +2607,22 @@
       <c r="U21" t="n">
         <v>1693.13</v>
       </c>
-      <c r="V21" t="inlineStr"/>
+      <c r="V21" t="b">
+        <v>1</v>
+      </c>
+      <c r="W21" t="b">
+        <v>1</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2393,7 +2712,22 @@
       <c r="U22" t="n">
         <v>1905.28</v>
       </c>
-      <c r="V22" t="inlineStr"/>
+      <c r="V22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" t="b">
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -2479,7 +2813,22 @@
       <c r="U23" t="n">
         <v>2590.9</v>
       </c>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W23" t="b">
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2569,7 +2918,22 @@
       <c r="U24" t="n">
         <v>1372.04</v>
       </c>
-      <c r="V24" t="inlineStr"/>
+      <c r="V24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" t="b">
+        <v>1</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2659,7 +3023,22 @@
       <c r="U25" t="n">
         <v>2547.63</v>
       </c>
-      <c r="V25" t="inlineStr"/>
+      <c r="V25" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" t="b">
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2749,7 +3128,22 @@
       <c r="U26" t="n">
         <v>1423.31</v>
       </c>
-      <c r="V26" t="inlineStr"/>
+      <c r="V26" t="b">
+        <v>1</v>
+      </c>
+      <c r="W26" t="b">
+        <v>1</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2839,7 +3233,22 @@
       <c r="U27" t="n">
         <v>3007.43</v>
       </c>
-      <c r="V27" t="inlineStr"/>
+      <c r="V27" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" t="b">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2929,7 +3338,22 @@
       <c r="U28" t="n">
         <v>5240.56</v>
       </c>
-      <c r="V28" t="inlineStr"/>
+      <c r="V28" t="b">
+        <v>1</v>
+      </c>
+      <c r="W28" t="b">
+        <v>1</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3019,7 +3443,22 @@
       <c r="U29" t="n">
         <v>583.79</v>
       </c>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="b">
+        <v>1</v>
+      </c>
+      <c r="W29" t="b">
+        <v>1</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3109,7 +3548,22 @@
       <c r="U30" t="n">
         <v>1167.93</v>
       </c>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="b">
+        <v>1</v>
+      </c>
+      <c r="W30" t="b">
+        <v>1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3199,7 +3653,22 @@
       <c r="U31" t="n">
         <v>2175.01</v>
       </c>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="b">
+        <v>1</v>
+      </c>
+      <c r="W31" t="b">
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3289,7 +3758,22 @@
       <c r="U32" t="n">
         <v>1948.86</v>
       </c>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="b">
+        <v>1</v>
+      </c>
+      <c r="W32" t="b">
+        <v>1</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3379,7 +3863,22 @@
       <c r="U33" t="n">
         <v>4291.73</v>
       </c>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="b">
+        <v>1</v>
+      </c>
+      <c r="W33" t="b">
+        <v>1</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3469,7 +3968,22 @@
       <c r="U34" t="n">
         <v>1605.43</v>
       </c>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="b">
+        <v>1</v>
+      </c>
+      <c r="W34" t="b">
+        <v>1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3559,7 +4073,22 @@
       <c r="U35" t="n">
         <v>1167.58</v>
       </c>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="b">
+        <v>1</v>
+      </c>
+      <c r="W35" t="b">
+        <v>1</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3649,7 +4178,22 @@
       <c r="U36" t="n">
         <v>2175.27</v>
       </c>
-      <c r="V36" t="inlineStr"/>
+      <c r="V36" t="b">
+        <v>1</v>
+      </c>
+      <c r="W36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3739,7 +4283,22 @@
       <c r="U37" t="n">
         <v>1401.74</v>
       </c>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="b">
+        <v>1</v>
+      </c>
+      <c r="W37" t="b">
+        <v>1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3829,7 +4388,22 @@
       <c r="U38" t="n">
         <v>3065.42</v>
       </c>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="b">
+        <v>1</v>
+      </c>
+      <c r="W38" t="b">
+        <v>1</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3919,7 +4493,22 @@
       <c r="U39" t="n">
         <v>3072.78</v>
       </c>
-      <c r="V39" t="inlineStr"/>
+      <c r="V39" t="b">
+        <v>1</v>
+      </c>
+      <c r="W39" t="b">
+        <v>1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4009,7 +4598,22 @@
       <c r="U40" t="n">
         <v>6911.99</v>
       </c>
-      <c r="V40" t="inlineStr"/>
+      <c r="V40" t="b">
+        <v>1</v>
+      </c>
+      <c r="W40" t="b">
+        <v>1</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4099,7 +4703,22 @@
       <c r="U41" t="n">
         <v>5591.48</v>
       </c>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="b">
+        <v>1</v>
+      </c>
+      <c r="W41" t="b">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4189,7 +4808,22 @@
       <c r="U42" t="n">
         <v>2021.83</v>
       </c>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="b">
+        <v>1</v>
+      </c>
+      <c r="W42" t="b">
+        <v>1</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4279,7 +4913,22 @@
       <c r="U43" t="n">
         <v>4416.23</v>
       </c>
-      <c r="V43" t="inlineStr"/>
+      <c r="V43" t="b">
+        <v>1</v>
+      </c>
+      <c r="W43" t="b">
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4369,7 +5018,22 @@
       <c r="U44" t="n">
         <v>3116.44</v>
       </c>
-      <c r="V44" t="inlineStr"/>
+      <c r="V44" t="b">
+        <v>1</v>
+      </c>
+      <c r="W44" t="b">
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4459,7 +5123,22 @@
       <c r="U45" t="n">
         <v>1080.27</v>
       </c>
-      <c r="V45" t="inlineStr"/>
+      <c r="V45" t="b">
+        <v>1</v>
+      </c>
+      <c r="W45" t="b">
+        <v>1</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4549,7 +5228,22 @@
       <c r="U46" t="n">
         <v>1532.84</v>
       </c>
-      <c r="V46" t="inlineStr"/>
+      <c r="V46" t="b">
+        <v>1</v>
+      </c>
+      <c r="W46" t="b">
+        <v>1</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4639,7 +5333,22 @@
       <c r="U47" t="n">
         <v>1605.56</v>
       </c>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="b">
+        <v>1</v>
+      </c>
+      <c r="W47" t="b">
+        <v>1</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4729,7 +5438,22 @@
       <c r="U48" t="n">
         <v>291.9</v>
       </c>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="b">
+        <v>1</v>
+      </c>
+      <c r="W48" t="b">
+        <v>1</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4819,7 +5543,22 @@
       <c r="U49" t="n">
         <v>1401.23</v>
       </c>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="b">
+        <v>1</v>
+      </c>
+      <c r="W49" t="b">
+        <v>1</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4909,7 +5648,22 @@
       <c r="U50" t="n">
         <v>6670.85</v>
       </c>
-      <c r="V50" t="inlineStr"/>
+      <c r="V50" t="b">
+        <v>1</v>
+      </c>
+      <c r="W50" t="b">
+        <v>1</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4999,7 +5753,22 @@
       <c r="U51" t="n">
         <v>2189.35</v>
       </c>
-      <c r="V51" t="inlineStr"/>
+      <c r="V51" t="b">
+        <v>1</v>
+      </c>
+      <c r="W51" t="b">
+        <v>1</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5089,7 +5858,22 @@
       <c r="U52" t="n">
         <v>1167.58</v>
       </c>
-      <c r="V52" t="inlineStr"/>
+      <c r="V52" t="b">
+        <v>1</v>
+      </c>
+      <c r="W52" t="b">
+        <v>1</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5179,7 +5963,22 @@
       <c r="U53" t="n">
         <v>839.52</v>
       </c>
-      <c r="V53" t="inlineStr"/>
+      <c r="V53" t="b">
+        <v>1</v>
+      </c>
+      <c r="W53" t="b">
+        <v>1</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5269,7 +6068,22 @@
       <c r="U54" t="n">
         <v>6365.39</v>
       </c>
-      <c r="V54" t="inlineStr"/>
+      <c r="V54" t="b">
+        <v>1</v>
+      </c>
+      <c r="W54" t="b">
+        <v>1</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5359,7 +6173,22 @@
       <c r="U55" t="n">
         <v>2970.75</v>
       </c>
-      <c r="V55" t="inlineStr"/>
+      <c r="V55" t="b">
+        <v>1</v>
+      </c>
+      <c r="W55" t="b">
+        <v>1</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5417,7 +6246,16 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
+      <c r="V56" t="b">
+        <v>0</v>
+      </c>
+      <c r="W56" t="b">
+        <v>0</v>
+      </c>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr">
         <is>
           <t>CPFM_Null</t>
         </is>
@@ -5511,7 +6349,22 @@
       <c r="U57" t="n">
         <v>1985.02</v>
       </c>
-      <c r="V57" t="inlineStr"/>
+      <c r="V57" t="b">
+        <v>1</v>
+      </c>
+      <c r="W57" t="b">
+        <v>1</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5569,7 +6422,16 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr">
+      <c r="V58" t="b">
+        <v>0</v>
+      </c>
+      <c r="W58" t="b">
+        <v>0</v>
+      </c>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr">
         <is>
           <t>CPFM_Null</t>
         </is>
@@ -5663,7 +6525,22 @@
       <c r="U59" t="n">
         <v>6510.69</v>
       </c>
-      <c r="V59" t="inlineStr"/>
+      <c r="V59" t="b">
+        <v>1</v>
+      </c>
+      <c r="W59" t="b">
+        <v>1</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5753,7 +6630,22 @@
       <c r="U60" t="n">
         <v>2409.04</v>
       </c>
-      <c r="V60" t="inlineStr"/>
+      <c r="V60" t="b">
+        <v>1</v>
+      </c>
+      <c r="W60" t="b">
+        <v>1</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5843,7 +6735,22 @@
       <c r="U61" t="n">
         <v>1423.31</v>
       </c>
-      <c r="V61" t="inlineStr"/>
+      <c r="V61" t="b">
+        <v>1</v>
+      </c>
+      <c r="W61" t="b">
+        <v>1</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5933,7 +6840,22 @@
       <c r="U62" t="n">
         <v>4466.27</v>
       </c>
-      <c r="V62" t="inlineStr"/>
+      <c r="V62" t="b">
+        <v>1</v>
+      </c>
+      <c r="W62" t="b">
+        <v>1</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6023,7 +6945,22 @@
       <c r="U63" t="n">
         <v>1225.96</v>
       </c>
-      <c r="V63" t="inlineStr"/>
+      <c r="V63" t="b">
+        <v>1</v>
+      </c>
+      <c r="W63" t="b">
+        <v>1</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6113,7 +7050,22 @@
       <c r="U64" t="n">
         <v>1094.74</v>
       </c>
-      <c r="V64" t="inlineStr"/>
+      <c r="V64" t="b">
+        <v>1</v>
+      </c>
+      <c r="W64" t="b">
+        <v>1</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6203,7 +7155,22 @@
       <c r="U65" t="n">
         <v>2883.18</v>
       </c>
-      <c r="V65" t="inlineStr"/>
+      <c r="V65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W65" t="b">
+        <v>1</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6293,7 +7260,22 @@
       <c r="U66" t="n">
         <v>3233.58</v>
       </c>
-      <c r="V66" t="inlineStr"/>
+      <c r="V66" t="b">
+        <v>1</v>
+      </c>
+      <c r="W66" t="b">
+        <v>1</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6383,7 +7365,22 @@
       <c r="U67" t="n">
         <v>2101.78</v>
       </c>
-      <c r="V67" t="inlineStr"/>
+      <c r="V67" t="b">
+        <v>1</v>
+      </c>
+      <c r="W67" t="b">
+        <v>1</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6473,7 +7470,22 @@
       <c r="U68" t="n">
         <v>5371.14</v>
       </c>
-      <c r="V68" t="inlineStr"/>
+      <c r="V68" t="b">
+        <v>1</v>
+      </c>
+      <c r="W68" t="b">
+        <v>1</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6531,7 +7543,16 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr">
+      <c r="V69" t="b">
+        <v>0</v>
+      </c>
+      <c r="W69" t="b">
+        <v>0</v>
+      </c>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr">
         <is>
           <t>CPFM_Null</t>
         </is>
@@ -6625,7 +7646,22 @@
       <c r="U70" t="n">
         <v>6744.68</v>
       </c>
-      <c r="V70" t="inlineStr"/>
+      <c r="V70" t="b">
+        <v>1</v>
+      </c>
+      <c r="W70" t="b">
+        <v>1</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6683,7 +7719,16 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr">
+      <c r="V71" t="b">
+        <v>0</v>
+      </c>
+      <c r="W71" t="b">
+        <v>0</v>
+      </c>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr">
         <is>
           <t>CPFM_Null</t>
         </is>
@@ -6777,7 +7822,22 @@
       <c r="U72" t="n">
         <v>3613.18</v>
       </c>
-      <c r="V72" t="inlineStr"/>
+      <c r="V72" t="b">
+        <v>1</v>
+      </c>
+      <c r="W72" t="b">
+        <v>1</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6867,7 +7927,22 @@
       <c r="U73" t="n">
         <v>2700.89</v>
       </c>
-      <c r="V73" t="inlineStr"/>
+      <c r="V73" t="b">
+        <v>1</v>
+      </c>
+      <c r="W73" t="b">
+        <v>1</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6957,7 +8032,22 @@
       <c r="U74" t="n">
         <v>3079.76</v>
       </c>
-      <c r="V74" t="inlineStr"/>
+      <c r="V74" t="b">
+        <v>1</v>
+      </c>
+      <c r="W74" t="b">
+        <v>1</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7047,7 +8137,22 @@
       <c r="U75" t="n">
         <v>4138.67</v>
       </c>
-      <c r="V75" t="inlineStr"/>
+      <c r="V75" t="b">
+        <v>1</v>
+      </c>
+      <c r="W75" t="b">
+        <v>1</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7137,7 +8242,22 @@
       <c r="U76" t="n">
         <v>2379.08</v>
       </c>
-      <c r="V76" t="inlineStr"/>
+      <c r="V76" t="b">
+        <v>1</v>
+      </c>
+      <c r="W76" t="b">
+        <v>1</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7227,7 +8347,22 @@
       <c r="U77" t="n">
         <v>2758.8</v>
       </c>
-      <c r="V77" t="inlineStr"/>
+      <c r="V77" t="b">
+        <v>1</v>
+      </c>
+      <c r="W77" t="b">
+        <v>1</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7317,7 +8452,22 @@
       <c r="U78" t="n">
         <v>2299</v>
       </c>
-      <c r="V78" t="inlineStr"/>
+      <c r="V78" t="b">
+        <v>1</v>
+      </c>
+      <c r="W78" t="b">
+        <v>1</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7407,7 +8557,22 @@
       <c r="U79" t="n">
         <v>4130.59</v>
       </c>
-      <c r="V79" t="inlineStr"/>
+      <c r="V79" t="b">
+        <v>1</v>
+      </c>
+      <c r="W79" t="b">
+        <v>1</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7497,7 +8662,22 @@
       <c r="U80" t="n">
         <v>1350.47</v>
       </c>
-      <c r="V80" t="inlineStr"/>
+      <c r="V80" t="b">
+        <v>1</v>
+      </c>
+      <c r="W80" t="b">
+        <v>1</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7587,7 +8767,22 @@
       <c r="U81" t="n">
         <v>4175.53</v>
       </c>
-      <c r="V81" t="inlineStr"/>
+      <c r="V81" t="b">
+        <v>1</v>
+      </c>
+      <c r="W81" t="b">
+        <v>1</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -7673,7 +8868,22 @@
       <c r="U82" t="n">
         <v>3357.27</v>
       </c>
-      <c r="V82" t="inlineStr"/>
+      <c r="V82" t="b">
+        <v>1</v>
+      </c>
+      <c r="W82" t="b">
+        <v>1</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7763,7 +8973,22 @@
       <c r="U83" t="n">
         <v>3124.19</v>
       </c>
-      <c r="V83" t="inlineStr"/>
+      <c r="V83" t="b">
+        <v>1</v>
+      </c>
+      <c r="W83" t="b">
+        <v>1</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7853,7 +9078,22 @@
       <c r="U84" t="n">
         <v>2043.79</v>
       </c>
-      <c r="V84" t="inlineStr"/>
+      <c r="V84" t="b">
+        <v>1</v>
+      </c>
+      <c r="W84" t="b">
+        <v>1</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA84" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8017,7 +9257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8132,6 +9372,31 @@
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>INV.no Check</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Inv. Date Check</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ExcludeVAT_diff</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>VAT_diff</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>IncludeVAT_diff</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>null_report</t>
         </is>
@@ -8148,7 +9413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8263,6 +9528,31 @@
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>INV.no Check</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Inv. Date Check</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ExcludeVAT_diff</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>VAT_diff</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>IncludeVAT_diff</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>null_report</t>
         </is>
@@ -8320,7 +9610,16 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
+      <c r="V2" t="b">
+        <v>0</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr">
         <is>
           <t>CPFM_Null</t>
         </is>
@@ -8382,7 +9681,16 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
+      <c r="V3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
         <is>
           <t>CPFM_Null</t>
         </is>
@@ -8444,7 +9752,16 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
+      <c r="V4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
         <is>
           <t>CPFM_Null</t>
         </is>
@@ -8506,7 +9823,16 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr">
         <is>
           <t>CPFM_Null</t>
         </is>
@@ -8568,7 +9894,16 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr">
         <is>
           <t>CPFM_Null</t>
         </is>
@@ -8585,7 +9920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8616,30 +9951,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DIFF</t>
+          <t>Matching</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Matching</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
         <v>83</v>
       </c>
     </row>
